--- a/Lingyu Zhou/w5/5.1/Data and codebook.xlsx
+++ b/Lingyu Zhou/w5/5.1/Data and codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSR data n writing\NB data\data for Lingyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\labor_audit\Lingyu Zhou\w5\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9910D2-5F1B-41BE-A95E-34D49F0E5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1FA93-6D20-415F-9356-D9774DBBB1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="factory_OnTime" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="30">
   <si>
     <t>Variables</t>
   </si>
@@ -78,9 +78,6 @@
     <t>SI to original confirmed or "Orig Confirmed"</t>
   </si>
   <si>
-    <t>Factorycode</t>
-  </si>
-  <si>
     <t>PYV</t>
   </si>
   <si>
@@ -102,18 +99,36 @@
     <t>Orig_Confirmed</t>
   </si>
   <si>
-    <t>Turnover</t>
+    <t>factorycode</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>PHV</t>
+  </si>
+  <si>
+    <t>FTV2</t>
+  </si>
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>CJ1</t>
+  </si>
+  <si>
+    <t>PWI2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,8 +149,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,6 +208,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,11 +500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EEBC18-6061-4F5C-9EE8-AF9EC4CA6B8E}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="J302" sqref="J302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="11.1328125" customWidth="1"/>
     <col min="2" max="2" width="4.86328125" customWidth="1"/>
@@ -484,96 +515,6985 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="16.149999999999999" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>2021</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>646956</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6">
         <v>2021</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+      <c r="D3" s="6">
+        <v>320616</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
         <v>2021</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+      <c r="D4" s="6">
+        <v>330906</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
         <v>2021</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6">
+      <c r="D5" s="6">
+        <v>452572</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
         <v>2021</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="D6" s="6">
+        <v>436416</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
         <v>2021</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="D7" s="6">
+        <v>507084</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>158757</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1272</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>100830</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>263874</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>327994</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>426554</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>407694</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>449154</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>436266</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>695976</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>405480</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>608652</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>416292</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="6">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>489570</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6">
+        <v>572340</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>429954</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6">
+        <v>438342</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>453678</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>249552</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>285960</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>417240</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>512106</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>480306</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H31" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6">
+        <v>629400</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H32" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>403608</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="6">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6">
+        <v>485619</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6">
+        <v>528470</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H35" s="8">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="6">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6">
+        <v>544228</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6">
+        <v>476598</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H37" s="8">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>634992</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>322380</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
+        <v>462120</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>506217</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="6">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="6">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="6">
+        <v>10</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="6">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>965148</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>425352</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1.5127E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>710676</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H52" s="8">
+        <v>5.0058999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4</v>
+      </c>
+      <c r="D53" s="6">
+        <v>888300</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3.0540999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>773238</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3.5179000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6">
+        <v>927558</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H55" s="8">
+        <v>2.7393000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="6">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6">
+        <v>509742</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H56" s="8">
+        <v>1.5903E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="6">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6">
+        <v>19050</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="6">
+        <v>9</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4062</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6">
+        <v>223850</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3.7260000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C60" s="6">
+        <v>11</v>
+      </c>
+      <c r="D60" s="6">
+        <v>647788</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="H60" s="8">
+        <v>6.5434000000000006E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C61" s="6">
+        <v>12</v>
+      </c>
+      <c r="D61" s="6">
+        <v>734751</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G61" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H61" s="8">
+        <v>4.4108000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>665412</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="8">
+        <v>2.7465E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>800495</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="H63" s="8">
+        <v>2.6575000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>678955</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3.6887000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4</v>
+      </c>
+      <c r="D65" s="6">
+        <v>828100</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H65" s="8">
+        <v>2.7254E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C66" s="6">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>814956</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H66" s="8">
+        <v>3.0020999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C67" s="6">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>895396</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H67" s="8">
+        <v>2.7786999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C68" s="6">
+        <v>7</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1005480</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H68" s="8">
+        <v>2.2665999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C69" s="6">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6">
+        <v>781746</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H69" s="8">
+        <v>1.8068000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C70" s="6">
+        <v>9</v>
+      </c>
+      <c r="D70" s="6">
+        <v>771510</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H70" s="8">
+        <v>1.4406E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C71" s="6">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1129202</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H71" s="8">
+        <v>1.5216E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C72" s="6">
+        <v>11</v>
+      </c>
+      <c r="D72" s="6">
+        <v>804176</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="8">
+        <v>9.7859999999999996E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C73" s="6">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6">
+        <v>829494</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H73" s="8">
+        <v>5.4310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>638506</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H74" s="8">
+        <v>8.6890000000000005E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>758648</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="H75" s="8">
+        <v>2.9326999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6">
+        <v>659778</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="8">
+        <v>1.9401999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="6">
+        <v>952575</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1.8225000000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6">
+        <v>751952</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1.6971E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6">
+        <v>920274</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1.3662000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C80" s="6">
+        <v>7</v>
+      </c>
+      <c r="D80" s="6">
+        <v>900369</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1.4696000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C81" s="6">
+        <v>8</v>
+      </c>
+      <c r="D81" s="6">
+        <v>745874</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H81" s="8">
+        <v>1.7440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C82" s="6">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6">
+        <v>791429</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1.6605000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C83" s="6">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1102172</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1.5341E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C84" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" s="6">
+        <v>893024</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1.2676E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C85" s="6">
+        <v>12</v>
+      </c>
+      <c r="D85" s="6">
+        <v>873966</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
+        <v>1</v>
+      </c>
+      <c r="H85" s="8">
+        <v>9.0200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
+        <v>991314</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6">
+        <v>589132</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="6">
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>846257</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C89" s="6">
+        <v>4</v>
+      </c>
+      <c r="D89" s="6">
+        <v>933454</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C90" s="6">
+        <v>5</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C91" s="6">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C92" s="6">
+        <v>7</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C93" s="6">
+        <v>8</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C94" s="6">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C95" s="6">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C96" s="6">
+        <v>11</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C97" s="6">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1215342</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="G98" s="7">
+        <v>1</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1.3915E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6">
+        <v>732516</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1.6022999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C100" s="6">
+        <v>3</v>
+      </c>
+      <c r="D100" s="6">
+        <v>994799</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G100" s="7">
+        <v>1</v>
+      </c>
+      <c r="H100" s="8">
+        <v>2.3399E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C101" s="6">
+        <v>4</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1213827</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H101" s="8">
+        <v>2.3109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C102" s="6">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1092384</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1</v>
+      </c>
+      <c r="H102" s="8">
+        <v>2.0160999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C103" s="6">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1075623</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H103" s="8">
+        <v>1.5086E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C104" s="6">
+        <v>7</v>
+      </c>
+      <c r="D104" s="6">
+        <v>542604</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H104" s="8">
+        <v>7.5570000000000003E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C105" s="6">
+        <v>8</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="8">
+        <v>1.0020000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C106" s="6">
+        <v>9</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0</v>
+      </c>
+      <c r="H106" s="8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C107" s="6">
+        <v>10</v>
+      </c>
+      <c r="D107" s="6">
+        <v>114762</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C108" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" s="6">
+        <v>116019</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H108" s="8">
+        <v>8.8959999999999994E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C109" s="6">
+        <v>12</v>
+      </c>
+      <c r="D109" s="6">
+        <v>690204</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H109" s="8">
+        <v>3.9019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6">
+        <v>728202</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H110" s="8">
+        <v>2.4334000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6">
+        <v>879186</v>
+      </c>
+      <c r="E111" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H111" s="8">
+        <v>2.206E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C112" s="6">
+        <v>3</v>
+      </c>
+      <c r="D112" s="6">
+        <v>878232</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H112" s="8">
+        <v>2.6668000000000001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C113" s="6">
+        <v>4</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1098678</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="H113" s="8">
+        <v>2.1455999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C114" s="6">
+        <v>5</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1050744</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1.9054999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C115" s="6">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1019502</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H115" s="8">
+        <v>1.7711999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C116" s="6">
+        <v>7</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1290810</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H116" s="8">
+        <v>1.7141E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C117" s="6">
+        <v>8</v>
+      </c>
+      <c r="D117" s="6">
+        <v>943236</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="H117" s="8">
+        <v>1.2423999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C118" s="6">
+        <v>9</v>
+      </c>
+      <c r="D118" s="6">
+        <v>997983</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1.2038999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C119" s="6">
+        <v>10</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1526575</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="H119" s="8">
+        <v>1.3495999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C120" s="6">
+        <v>11</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1064290</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="G120" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H120" s="8">
+        <v>9.0419999999999997E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C121" s="6">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1068401</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="G121" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H121" s="8">
+        <v>3.8419999999999999E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6">
+        <v>713454</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="G122" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H122" s="8">
+        <v>1.0044000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C123" s="6">
+        <v>2</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1127570</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G123" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H123" s="8">
+        <v>1.6805E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C124" s="6">
+        <v>3</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1052130</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G124" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H124" s="8">
+        <v>1.7738E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C125" s="6">
+        <v>4</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1281480</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G125" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H125" s="8">
+        <v>1.2518E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C126" s="6">
+        <v>5</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1063430</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="G126" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H126" s="8">
+        <v>1.5630999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C127" s="6">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1056318</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="G127" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H127" s="8">
+        <v>1.9838000000000001E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C128" s="6">
+        <v>7</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1359696</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G128" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H128" s="8">
+        <v>1.9924000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C129" s="6">
+        <v>8</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1125174</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="G129" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H129" s="8">
+        <v>1.6424000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C130" s="6">
+        <v>9</v>
+      </c>
+      <c r="D130" s="6">
+        <v>910950</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="H130" s="8">
+        <v>1.7978999999999998E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C131" s="6">
+        <v>10</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1545540</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G131" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H131" s="8">
+        <v>1.7610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C132" s="6">
+        <v>11</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1215084</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G132" s="7">
+        <v>1</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1.6424000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C133" s="6">
+        <v>12</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1285561</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G133" s="7">
+        <v>1</v>
+      </c>
+      <c r="H133" s="8">
+        <v>8.4600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1475340</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2</v>
+      </c>
+      <c r="D135" s="6">
+        <v>599178</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="7">
+        <v>1</v>
+      </c>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C136" s="6">
+        <v>3</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1096866</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G136" s="7">
+        <v>1</v>
+      </c>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C137" s="6">
+        <v>4</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1306932</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G137" s="7">
+        <v>1</v>
+      </c>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C138" s="6">
+        <v>5</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C139" s="6">
+        <v>6</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C140" s="6">
+        <v>7</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="6">
+        <v>8</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="6">
+        <v>9</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C143" s="6">
+        <v>10</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C144" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C145" s="6">
+        <v>12</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="6">
+        <v>754278</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G146" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H146" s="8">
+        <v>5.3179999999999998E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C147" s="6">
+        <v>2</v>
+      </c>
+      <c r="D147" s="6">
+        <v>476163</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F147" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G147" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H147" s="8">
+        <v>2.4412E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C148" s="6">
+        <v>3</v>
+      </c>
+      <c r="D148" s="6">
+        <v>636082</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="G148" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="H148" s="8">
+        <v>3.0079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C149" s="6">
+        <v>4</v>
+      </c>
+      <c r="D149" s="6">
+        <v>806502</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F149" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G149" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="H149" s="8">
+        <v>2.7711E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C150" s="6">
+        <v>5</v>
+      </c>
+      <c r="D150" s="6">
+        <v>408730</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G150" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="H150" s="8">
+        <v>2.3379E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C151" s="6">
+        <v>6</v>
+      </c>
+      <c r="D151" s="6">
+        <v>438598</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G151" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H151" s="8">
+        <v>1.2736000000000001E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C152" s="6">
+        <v>7</v>
+      </c>
+      <c r="D152" s="6">
+        <v>400792</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F152" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="G152" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H152" s="8">
+        <v>8.8260000000000005E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C153" s="6">
+        <v>8</v>
+      </c>
+      <c r="D153" s="6">
+        <v>15408</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F153" s="7">
+        <v>0</v>
+      </c>
+      <c r="G153" s="7">
+        <v>0</v>
+      </c>
+      <c r="H153" s="8">
+        <v>2.2629999999999998E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C154" s="6">
+        <v>9</v>
+      </c>
+      <c r="D154" s="6">
+        <v>10212</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0</v>
+      </c>
+      <c r="G154" s="7">
+        <v>0</v>
+      </c>
+      <c r="H154" s="8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C155" s="6">
+        <v>10</v>
+      </c>
+      <c r="D155" s="6">
+        <v>70212</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0</v>
+      </c>
+      <c r="G155" s="7">
+        <v>0</v>
+      </c>
+      <c r="H155" s="8">
+        <v>2.2727000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C156" s="6">
+        <v>11</v>
+      </c>
+      <c r="D156" s="6">
+        <v>365940</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0</v>
+      </c>
+      <c r="G156" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H156" s="8">
+        <v>3.9216000000000001E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C157" s="6">
+        <v>12</v>
+      </c>
+      <c r="D157" s="6">
+        <v>520632</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0</v>
+      </c>
+      <c r="G157" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H157" s="8">
+        <v>4.6594999999999998E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="6">
+        <v>483930</v>
+      </c>
+      <c r="E158" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G158" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H158" s="8">
+        <v>1.8693000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C159" s="6">
+        <v>2</v>
+      </c>
+      <c r="D159" s="6">
+        <v>435894</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G159" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="H159" s="8">
+        <v>3.2126000000000002E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C160" s="6">
+        <v>3</v>
+      </c>
+      <c r="D160" s="6">
+        <v>494430</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G160" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="H160" s="8">
+        <v>2.6452E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C161" s="6">
+        <v>4</v>
+      </c>
+      <c r="D161" s="6">
+        <v>519330</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="G161" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="H161" s="8">
+        <v>2.1017999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C162" s="6">
+        <v>5</v>
+      </c>
+      <c r="D162" s="6">
+        <v>499818</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H162" s="8">
+        <v>2.8407999999999999E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C163" s="6">
+        <v>6</v>
+      </c>
+      <c r="D163" s="6">
+        <v>593034</v>
+      </c>
+      <c r="E163" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G163" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="H163" s="8">
+        <v>2.1866E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C164" s="6">
+        <v>7</v>
+      </c>
+      <c r="D164" s="6">
+        <v>634866</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H164" s="8">
+        <v>2.0594000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C165" s="6">
+        <v>8</v>
+      </c>
+      <c r="D165" s="6">
+        <v>448542</v>
+      </c>
+      <c r="E165" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="G165" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H165" s="8">
+        <v>1.7659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C166" s="6">
+        <v>9</v>
+      </c>
+      <c r="D166" s="6">
+        <v>539454</v>
+      </c>
+      <c r="E166" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H166" s="8">
+        <v>1.6794E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C167" s="6">
+        <v>10</v>
+      </c>
+      <c r="D167" s="6">
+        <v>761292</v>
+      </c>
+      <c r="E167" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G167" s="7">
+        <v>1</v>
+      </c>
+      <c r="H167" s="8">
+        <v>3.2857999999999998E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C168" s="6">
+        <v>11</v>
+      </c>
+      <c r="D168" s="6">
+        <v>507732</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G168" s="7">
+        <v>1</v>
+      </c>
+      <c r="H168" s="8">
+        <v>1.8505000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C169" s="6">
+        <v>12</v>
+      </c>
+      <c r="D169" s="6">
+        <v>440430</v>
+      </c>
+      <c r="E169" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G169" s="7">
+        <v>1</v>
+      </c>
+      <c r="H169" s="8">
+        <v>9.9179000000000003E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6">
+        <v>314916</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="F170" s="7">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7">
+        <v>1</v>
+      </c>
+      <c r="H170" s="8">
+        <v>4.0330000000000001E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C171" s="6">
+        <v>2</v>
+      </c>
+      <c r="D171" s="6">
+        <v>370848</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G171" s="7">
+        <v>1</v>
+      </c>
+      <c r="H171" s="8">
+        <v>4.6239000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C172" s="6">
+        <v>3</v>
+      </c>
+      <c r="D172" s="6">
+        <v>446682</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G172" s="7">
+        <v>1</v>
+      </c>
+      <c r="H172" s="8">
+        <v>4.0120000000000003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C173" s="6">
+        <v>4</v>
+      </c>
+      <c r="D173" s="6">
+        <v>550674</v>
+      </c>
+      <c r="E173" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="G173" s="7">
+        <v>1</v>
+      </c>
+      <c r="H173" s="8">
+        <v>3.1923E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C174" s="6">
+        <v>5</v>
+      </c>
+      <c r="D174" s="6">
+        <v>398952</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G174" s="7">
+        <v>1</v>
+      </c>
+      <c r="H174" s="8">
+        <v>5.8404999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C175" s="6">
+        <v>6</v>
+      </c>
+      <c r="D175" s="6">
+        <v>298680</v>
+      </c>
+      <c r="E175" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F175" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="G175" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H175" s="8">
+        <v>3.8850000000000003E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C176" s="6">
+        <v>7</v>
+      </c>
+      <c r="D176" s="6">
+        <v>453700</v>
+      </c>
+      <c r="E176" s="7">
+        <v>1</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G176" s="7">
+        <v>1</v>
+      </c>
+      <c r="H176" s="8">
+        <v>1.7909000000000001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C177" s="6">
+        <v>8</v>
+      </c>
+      <c r="D177" s="6">
+        <v>428702</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G177" s="7">
+        <v>1</v>
+      </c>
+      <c r="H177" s="8">
+        <v>1.9623999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C178" s="6">
+        <v>9</v>
+      </c>
+      <c r="D178" s="6">
+        <v>495588</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G178" s="7">
+        <v>1</v>
+      </c>
+      <c r="H178" s="8">
+        <v>2.2388999999999999E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C179" s="6">
+        <v>10</v>
+      </c>
+      <c r="D179" s="6">
+        <v>671208</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F179" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G179" s="7">
+        <v>1</v>
+      </c>
+      <c r="H179" s="8">
+        <v>3.4839000000000002E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C180" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" s="6">
+        <v>530388</v>
+      </c>
+      <c r="E180" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G180" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H180" s="8">
+        <v>3.3110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C181" s="6">
+        <v>12</v>
+      </c>
+      <c r="D181" s="6">
+        <v>531594</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G181" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H181" s="8">
+        <v>1.5419E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C182" s="6">
+        <v>1</v>
+      </c>
+      <c r="D182" s="6">
+        <v>520326</v>
+      </c>
+      <c r="E182" s="7">
+        <v>1</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G182" s="7">
+        <v>1</v>
+      </c>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C183" s="6">
+        <v>2</v>
+      </c>
+      <c r="D183" s="6">
+        <v>315480</v>
+      </c>
+      <c r="E183" s="7">
+        <v>1</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7">
+        <v>1</v>
+      </c>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C184" s="6">
+        <v>3</v>
+      </c>
+      <c r="D184" s="6">
+        <v>528486</v>
+      </c>
+      <c r="E184" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G184" s="7">
+        <v>1</v>
+      </c>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C185" s="6">
+        <v>4</v>
+      </c>
+      <c r="D185" s="6">
+        <v>580452</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G185" s="7">
+        <v>1</v>
+      </c>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C186" s="6">
+        <v>5</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C187" s="6">
+        <v>6</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C188" s="6">
+        <v>7</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C189" s="6">
+        <v>8</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C190" s="6">
+        <v>9</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C191" s="6">
+        <v>10</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C192" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C193" s="6">
+        <v>12</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C194" s="6">
+        <v>1</v>
+      </c>
+      <c r="D194" s="6">
+        <v>143700</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F194" s="7">
+        <v>1</v>
+      </c>
+      <c r="G194" s="7">
+        <v>1</v>
+      </c>
+      <c r="H194" s="8">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C195" s="6">
+        <v>2</v>
+      </c>
+      <c r="D195" s="6">
+        <v>210606</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F195" s="7">
+        <v>1</v>
+      </c>
+      <c r="G195" s="7">
+        <v>1</v>
+      </c>
+      <c r="H195" s="8">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C196" s="6">
+        <v>3</v>
+      </c>
+      <c r="D196" s="6">
+        <v>214210</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F196" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G196" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H196" s="8">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C197" s="6">
+        <v>4</v>
+      </c>
+      <c r="D197" s="6">
+        <v>114672</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G197" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H197" s="8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C198" s="6">
+        <v>5</v>
+      </c>
+      <c r="D198" s="6">
+        <v>97206</v>
+      </c>
+      <c r="E198" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G198" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H198" s="8">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C199" s="6">
+        <v>6</v>
+      </c>
+      <c r="D199" s="6">
+        <v>96842</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G199" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H199" s="8">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C200" s="6">
+        <v>7</v>
+      </c>
+      <c r="D200" s="6">
+        <v>81882</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="F200" s="7">
+        <v>1</v>
+      </c>
+      <c r="G200" s="7">
+        <v>1</v>
+      </c>
+      <c r="H200" s="8">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C201" s="6">
+        <v>8</v>
+      </c>
+      <c r="D201" s="6">
+        <v>66288</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F201" s="7">
+        <v>1</v>
+      </c>
+      <c r="G201" s="7">
+        <v>1</v>
+      </c>
+      <c r="H201" s="8">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B202" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C202" s="6">
+        <v>9</v>
+      </c>
+      <c r="D202" s="6">
+        <v>43374</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F202" s="7">
+        <v>1</v>
+      </c>
+      <c r="G202" s="7">
+        <v>1</v>
+      </c>
+      <c r="H202" s="8">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B203" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C203" s="6">
+        <v>10</v>
+      </c>
+      <c r="D203" s="6">
+        <v>63654</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F203" s="7">
+        <v>1</v>
+      </c>
+      <c r="G203" s="7">
+        <v>1</v>
+      </c>
+      <c r="H203" s="8">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C204" s="6">
+        <v>11</v>
+      </c>
+      <c r="D204" s="6">
+        <v>60264</v>
+      </c>
+      <c r="E204" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="G204" s="7">
+        <v>1</v>
+      </c>
+      <c r="H204" s="8">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C205" s="6">
+        <v>12</v>
+      </c>
+      <c r="D205" s="6">
+        <v>82908</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G205" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H205" s="8">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C206" s="6">
+        <v>1</v>
+      </c>
+      <c r="D206" s="6">
+        <v>103512</v>
+      </c>
+      <c r="E206" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F206" s="7">
+        <v>1</v>
+      </c>
+      <c r="G206" s="7">
+        <v>1</v>
+      </c>
+      <c r="H206" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C207" s="6">
+        <v>2</v>
+      </c>
+      <c r="D207" s="6">
+        <v>144246</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F207" s="7">
+        <v>1</v>
+      </c>
+      <c r="G207" s="7">
+        <v>1</v>
+      </c>
+      <c r="H207" s="8">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C208" s="6">
+        <v>3</v>
+      </c>
+      <c r="D208" s="6">
+        <v>77442</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G208" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H208" s="8">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C209" s="6">
+        <v>4</v>
+      </c>
+      <c r="D209" s="6">
+        <v>85320</v>
+      </c>
+      <c r="E209" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="F209" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G209" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H209" s="8">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C210" s="6">
+        <v>5</v>
+      </c>
+      <c r="D210" s="6">
+        <v>105594</v>
+      </c>
+      <c r="E210" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G210" s="7">
+        <v>1</v>
+      </c>
+      <c r="H210" s="8">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C211" s="6">
+        <v>6</v>
+      </c>
+      <c r="D211" s="6">
+        <v>74538</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1</v>
+      </c>
+      <c r="G211" s="7">
+        <v>1</v>
+      </c>
+      <c r="H211" s="8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C212" s="6">
+        <v>7</v>
+      </c>
+      <c r="D212" s="6">
+        <v>125688</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1</v>
+      </c>
+      <c r="G212" s="7">
+        <v>1</v>
+      </c>
+      <c r="H212" s="8">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C213" s="6">
+        <v>8</v>
+      </c>
+      <c r="D213" s="6">
+        <v>121980</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G213" s="7">
+        <v>1</v>
+      </c>
+      <c r="H213" s="8">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C214" s="6">
+        <v>9</v>
+      </c>
+      <c r="D214" s="6">
+        <v>129228</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="G214" s="7">
+        <v>1</v>
+      </c>
+      <c r="H214" s="8">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C215" s="6">
+        <v>10</v>
+      </c>
+      <c r="D215" s="6">
+        <v>115662</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G215" s="7">
+        <v>1</v>
+      </c>
+      <c r="H215" s="8">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C216" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" s="6">
+        <v>101166</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="G216" s="7">
+        <v>1</v>
+      </c>
+      <c r="H216" s="8">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C217" s="6">
+        <v>12</v>
+      </c>
+      <c r="D217" s="6">
+        <v>90774</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G217" s="7">
+        <v>1</v>
+      </c>
+      <c r="H217" s="8">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C218" s="6">
+        <v>1</v>
+      </c>
+      <c r="D218" s="6">
+        <v>49674</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="G218" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H218" s="8">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C219" s="6">
+        <v>2</v>
+      </c>
+      <c r="D219" s="6">
+        <v>260460</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G219" s="7">
+        <v>1</v>
+      </c>
+      <c r="H219" s="8">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C220" s="6">
+        <v>3</v>
+      </c>
+      <c r="D220" s="6">
+        <v>61903</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="G220" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H220" s="8">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C221" s="6">
+        <v>4</v>
+      </c>
+      <c r="D221" s="6">
+        <v>37237</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F221" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G221" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H221" s="8">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C222" s="6">
+        <v>5</v>
+      </c>
+      <c r="D222" s="6">
+        <v>68394</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G222" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H222" s="8">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C223" s="6">
+        <v>6</v>
+      </c>
+      <c r="D223" s="6">
+        <v>88092</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G223" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H223" s="8">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C224" s="6">
+        <v>7</v>
+      </c>
+      <c r="D224" s="6">
+        <v>100182</v>
+      </c>
+      <c r="E224" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F224" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G224" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H224" s="8">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C225" s="6">
+        <v>8</v>
+      </c>
+      <c r="D225" s="6">
+        <v>50856</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="F225" s="7">
+        <v>1</v>
+      </c>
+      <c r="G225" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H225" s="8">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C226" s="6">
+        <v>9</v>
+      </c>
+      <c r="D226" s="6">
+        <v>74682</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F226" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G226" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H226" s="8">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C227" s="6">
+        <v>10</v>
+      </c>
+      <c r="D227" s="6">
+        <v>85782</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G227" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H227" s="8">
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="6">
+        <v>11</v>
+      </c>
+      <c r="D228" s="6">
+        <v>86352</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F228" s="7">
+        <v>1</v>
+      </c>
+      <c r="G228" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="H228" s="8">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C229" s="6">
+        <v>12</v>
+      </c>
+      <c r="D229" s="6">
+        <v>100422</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1</v>
+      </c>
+      <c r="G229" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="H229" s="8">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C230" s="6">
+        <v>1</v>
+      </c>
+      <c r="D230" s="6">
+        <v>81336</v>
+      </c>
+      <c r="E230" s="7">
+        <v>1</v>
+      </c>
+      <c r="F230" s="7">
+        <v>1</v>
+      </c>
+      <c r="G230" s="7">
+        <v>1</v>
+      </c>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C231" s="6">
+        <v>2</v>
+      </c>
+      <c r="D231" s="6">
+        <v>65694</v>
+      </c>
+      <c r="E231" s="7">
+        <v>1</v>
+      </c>
+      <c r="F231" s="7">
+        <v>1</v>
+      </c>
+      <c r="G231" s="7">
+        <v>1</v>
+      </c>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C232" s="6">
+        <v>3</v>
+      </c>
+      <c r="D232" s="6">
+        <v>85728</v>
+      </c>
+      <c r="E232" s="7">
+        <v>1</v>
+      </c>
+      <c r="F232" s="7">
+        <v>1</v>
+      </c>
+      <c r="G232" s="7">
+        <v>1</v>
+      </c>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C233" s="6">
+        <v>4</v>
+      </c>
+      <c r="D233" s="6">
+        <v>112848</v>
+      </c>
+      <c r="E233" s="7">
+        <v>1</v>
+      </c>
+      <c r="F233" s="7">
+        <v>1</v>
+      </c>
+      <c r="G233" s="7">
+        <v>1</v>
+      </c>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C234" s="6">
+        <v>5</v>
+      </c>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C235" s="6">
+        <v>6</v>
+      </c>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C236" s="6">
+        <v>7</v>
+      </c>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C237" s="6">
+        <v>8</v>
+      </c>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C238" s="6">
+        <v>9</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B239" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C239" s="6">
+        <v>10</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C240" s="6">
+        <v>11</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C241" s="6">
+        <v>12</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C242" s="6">
+        <v>1</v>
+      </c>
+      <c r="D242" s="6">
+        <v>1234626</v>
+      </c>
+      <c r="E242" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F242" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G242" s="7">
+        <v>1</v>
+      </c>
+      <c r="H242" s="8">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C243" s="6">
+        <v>2</v>
+      </c>
+      <c r="D243" s="6">
+        <v>961740</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F243" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G243" s="7">
+        <v>1</v>
+      </c>
+      <c r="H243" s="8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C244" s="6">
+        <v>3</v>
+      </c>
+      <c r="D244" s="6">
+        <v>1017390</v>
+      </c>
+      <c r="E244" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F244" s="7">
+        <v>1</v>
+      </c>
+      <c r="G244" s="7">
+        <v>1</v>
+      </c>
+      <c r="H244" s="8">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C245" s="6">
+        <v>4</v>
+      </c>
+      <c r="D245" s="6">
+        <v>1087356</v>
+      </c>
+      <c r="E245" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F245" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G245" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H245" s="8">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C246" s="6">
+        <v>5</v>
+      </c>
+      <c r="D246" s="6">
+        <v>756190</v>
+      </c>
+      <c r="E246" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F246" s="7">
+        <v>1</v>
+      </c>
+      <c r="G246" s="7">
+        <v>1</v>
+      </c>
+      <c r="H246" s="8">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C247" s="6">
+        <v>6</v>
+      </c>
+      <c r="D247" s="6">
+        <v>996077</v>
+      </c>
+      <c r="E247" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F247" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G247" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H247" s="8">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C248" s="6">
+        <v>7</v>
+      </c>
+      <c r="D248" s="6">
+        <v>1385361</v>
+      </c>
+      <c r="E248" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F248" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G248" s="7">
+        <v>1</v>
+      </c>
+      <c r="H248" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C249" s="6">
+        <v>8</v>
+      </c>
+      <c r="D249" s="6">
+        <v>985154</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G249" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H249" s="8">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C250" s="6">
+        <v>9</v>
+      </c>
+      <c r="D250" s="6">
+        <v>834618</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F250" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G250" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H250" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C251" s="6">
+        <v>10</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1352046</v>
+      </c>
+      <c r="E251" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F251" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G251" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="H251" s="8">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C252" s="6">
+        <v>11</v>
+      </c>
+      <c r="D252" s="6">
+        <v>1145358</v>
+      </c>
+      <c r="E252" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F252" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G252" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H252" s="8">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C253" s="6">
+        <v>12</v>
+      </c>
+      <c r="D253" s="6">
+        <v>1191402</v>
+      </c>
+      <c r="E253" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F253" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="G253" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H253" s="8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C254" s="6">
+        <v>1</v>
+      </c>
+      <c r="D254" s="6">
+        <v>1431090</v>
+      </c>
+      <c r="E254" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F254" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="G254" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H254" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C255" s="6">
+        <v>2</v>
+      </c>
+      <c r="D255" s="6">
+        <v>994368</v>
+      </c>
+      <c r="E255" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F255" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="G255" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H255" s="8">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C256" s="6">
+        <v>3</v>
+      </c>
+      <c r="D256" s="6">
+        <v>1148988</v>
+      </c>
+      <c r="E256" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F256" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G256" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="H256" s="8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C257" s="6">
+        <v>4</v>
+      </c>
+      <c r="D257" s="6">
+        <v>761994</v>
+      </c>
+      <c r="E257" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F257" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="G257" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H257" s="8">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B258" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C258" s="6">
+        <v>5</v>
+      </c>
+      <c r="D258" s="6">
+        <v>1176450</v>
+      </c>
+      <c r="E258" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="F258" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G258" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="H258" s="8">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C259" s="6">
+        <v>6</v>
+      </c>
+      <c r="D259" s="6">
+        <v>1240944</v>
+      </c>
+      <c r="E259" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F259" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="G259" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="H259" s="8">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B260" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C260" s="6">
+        <v>7</v>
+      </c>
+      <c r="D260" s="6">
+        <v>1251366</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="G260" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="H260" s="8">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B261" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C261" s="6">
+        <v>8</v>
+      </c>
+      <c r="D261" s="6">
+        <v>946272</v>
+      </c>
+      <c r="E261" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F261" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="G261" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="H261" s="8">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B262" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C262" s="6">
+        <v>9</v>
+      </c>
+      <c r="D262" s="6">
+        <v>905403</v>
+      </c>
+      <c r="E262" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F262" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="G262" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="H262" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B263" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C263" s="6">
+        <v>10</v>
+      </c>
+      <c r="D263" s="6">
+        <v>1247019</v>
+      </c>
+      <c r="E263" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F263" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="G263" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H263" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B264" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C264" s="6">
+        <v>11</v>
+      </c>
+      <c r="D264" s="6">
+        <v>910584</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F264" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G264" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H264" s="8">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B265" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C265" s="6">
+        <v>12</v>
+      </c>
+      <c r="D265" s="6">
+        <v>688299</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F265" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G265" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H265" s="8">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B266" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C266" s="6">
+        <v>1</v>
+      </c>
+      <c r="D266" s="6">
+        <v>859048</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G266" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H266" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B267" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C267" s="6">
+        <v>2</v>
+      </c>
+      <c r="D267" s="6">
+        <v>722994</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G267" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H267" s="8">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B268" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C268" s="6">
+        <v>3</v>
+      </c>
+      <c r="D268" s="6">
+        <v>792237</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G268" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H268" s="8">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C269" s="6">
+        <v>4</v>
+      </c>
+      <c r="D269" s="6">
+        <v>690591</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F269" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G269" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H269" s="8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C270" s="6">
+        <v>5</v>
+      </c>
+      <c r="D270" s="6">
+        <v>751377</v>
+      </c>
+      <c r="E270" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F270" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G270" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H270" s="8">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C271" s="6">
+        <v>6</v>
+      </c>
+      <c r="D271" s="6">
+        <v>774810</v>
+      </c>
+      <c r="E271" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="F271" s="7">
+        <v>1</v>
+      </c>
+      <c r="G271" s="7">
+        <v>1</v>
+      </c>
+      <c r="H271" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C272" s="6">
+        <v>7</v>
+      </c>
+      <c r="D272" s="6">
+        <v>935484</v>
+      </c>
+      <c r="E272" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F272" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="G272" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="H272" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C273" s="6">
+        <v>8</v>
+      </c>
+      <c r="D273" s="6">
+        <v>785418</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="G273" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H273" s="8">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B274" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C274" s="6">
+        <v>9</v>
+      </c>
+      <c r="D274" s="6">
+        <v>677592</v>
+      </c>
+      <c r="E274" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G274" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H274" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B275" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C275" s="6">
+        <v>10</v>
+      </c>
+      <c r="D275" s="6">
+        <v>1033326</v>
+      </c>
+      <c r="E275" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F275" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G275" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H275" s="8">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B276" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C276" s="6">
+        <v>11</v>
+      </c>
+      <c r="D276" s="6">
+        <v>888279</v>
+      </c>
+      <c r="E276" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F276" s="7">
+        <v>1</v>
+      </c>
+      <c r="G276" s="7">
+        <v>1</v>
+      </c>
+      <c r="H276" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C277" s="6">
+        <v>12</v>
+      </c>
+      <c r="D277" s="6">
+        <v>803055</v>
+      </c>
+      <c r="E277" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F277" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="G277" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H277" s="8">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B278" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C278" s="6">
+        <v>1</v>
+      </c>
+      <c r="D278" s="6">
+        <v>973026</v>
+      </c>
+      <c r="E278" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F278" s="7">
+        <v>1</v>
+      </c>
+      <c r="G278" s="7">
+        <v>1</v>
+      </c>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C279" s="6">
+        <v>2</v>
+      </c>
+      <c r="D279" s="6">
+        <v>741498</v>
+      </c>
+      <c r="E279" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G279" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C280" s="6">
+        <v>3</v>
+      </c>
+      <c r="D280" s="6">
+        <v>855744</v>
+      </c>
+      <c r="E280" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="F280" s="7">
+        <v>1</v>
+      </c>
+      <c r="G280" s="7">
+        <v>1</v>
+      </c>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C281" s="6">
+        <v>4</v>
+      </c>
+      <c r="D281" s="6">
+        <v>824010</v>
+      </c>
+      <c r="E281" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F281" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G281" s="7">
+        <v>1</v>
+      </c>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B282" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C282" s="6">
+        <v>5</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B283" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C283" s="6">
+        <v>6</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C284" s="6">
+        <v>7</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B285" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C285" s="6">
+        <v>8</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B286" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C286" s="6">
+        <v>9</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B287" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C287" s="6">
+        <v>10</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C288" s="6">
+        <v>11</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C289" s="6">
+        <v>12</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="1048576" spans="1:1">
       <c r="A1048576" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -582,11 +7502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="57.9296875" style="4" customWidth="1"/>
@@ -594,7 +7514,7 @@
     <col min="4" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="56.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="56.65" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -616,7 +7536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -624,7 +7544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="27">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +7560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -648,7 +7568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="27">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -657,6 +7577,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>